--- a/lp_tenant_importer_v2/samples/esrin_config.xlsx
+++ b/lp_tenant_importer_v2/samples/esrin_config.xlsx
@@ -14,14 +14,16 @@
     <sheet name="Device" sheetId="5" r:id="rId5"/>
     <sheet name="DeviceFetcher" sheetId="6" r:id="rId6"/>
     <sheet name="DeviceGroups" sheetId="7" r:id="rId7"/>
-    <sheet name="Alert" sheetId="8" r:id="rId8"/>
+    <sheet name="User" sheetId="8" r:id="rId8"/>
+    <sheet name="UserGroup" sheetId="9" r:id="rId9"/>
+    <sheet name="Alert" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="690">
   <si>
     <t>policy_name</t>
   </si>
@@ -368,9 +370,6 @@
     <t>availability</t>
   </si>
   <si>
-    <t>65a131abfd86c80b5d628ae7</t>
-  </si>
-  <si>
     <t>65a7f385c79563211cb8dfc1</t>
   </si>
   <si>
@@ -383,9 +382,6 @@
     <t>65b8ba6a09bf73cfbe06672c</t>
   </si>
   <si>
-    <t>65bcfd61bceacf98775202b7</t>
-  </si>
-  <si>
     <t>65c2a353a0c2bb1a6beb9da1</t>
   </si>
   <si>
@@ -548,18 +544,6 @@
     <t>65c33e33a0c2bb1a6beb9da5</t>
   </si>
   <si>
-    <t>65ddd1ffbc253dd6610452a6</t>
-  </si>
-  <si>
-    <t>65e868cbd2a52d70040b4546</t>
-  </si>
-  <si>
-    <t>65e8692bd2a52d70040b4547</t>
-  </si>
-  <si>
-    <t>esait-log-proxy1</t>
-  </si>
-  <si>
     <t>esrin-palo-fw02</t>
   </si>
   <si>
@@ -572,9 +556,6 @@
     <t>esrin-cisco-wism03</t>
   </si>
   <si>
-    <t>esait-TenantLogGen</t>
-  </si>
-  <si>
     <t>esrin-cisco-wism04</t>
   </si>
   <si>
@@ -737,18 +718,6 @@
     <t>esrin-checkpoint-fw02</t>
   </si>
   <si>
-    <t>esait-TenantLogGen2</t>
-  </si>
-  <si>
-    <t>esait-log-proxy2</t>
-  </si>
-  <si>
-    <t>esait-log-proxy3</t>
-  </si>
-  <si>
-    <t>10.21.58.7</t>
-  </si>
-  <si>
     <t>172.18.11.218</t>
   </si>
   <si>
@@ -761,9 +730,6 @@
     <t>10.101.9.194</t>
   </si>
   <si>
-    <t>10.28.9.131</t>
-  </si>
-  <si>
     <t>10.16.2.191</t>
   </si>
   <si>
@@ -926,843 +892,783 @@
     <t>10.22.5.1</t>
   </si>
   <si>
-    <t>10.28.9.132</t>
-  </si>
-  <si>
-    <t>10.21.58.8</t>
-  </si>
-  <si>
-    <t>10.21.58.11</t>
-  </si>
-  <si>
     <t>UTC</t>
   </si>
   <si>
     <t>Europe/Brussels</t>
   </si>
   <si>
+    <t>firewall</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>wireless</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>PAM</t>
+  </si>
+  <si>
+    <t>LTM</t>
+  </si>
+  <si>
+    <t>identity</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>65a10dae2b54a0ac74025d96</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Minimal</t>
+  </si>
+  <si>
+    <t>device_name</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>sid</t>
+  </si>
+  <si>
+    <t>parser</t>
+  </si>
+  <si>
+    <t>processpolicy</t>
+  </si>
+  <si>
+    <t>charset</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>excludes</t>
+  </si>
+  <si>
+    <t>hasLCP</t>
+  </si>
+  <si>
+    <t>client_id</t>
+  </si>
+  <si>
+    <t>api_key</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>fetch_interval</t>
+  </si>
+  <si>
+    <t>LOGGEDINUSER</t>
+  </si>
+  <si>
+    <t>proxy</t>
+  </si>
+  <si>
+    <t>authorization_url</t>
+  </si>
+  <si>
+    <t>client_secret</t>
+  </si>
+  <si>
+    <t>events_url</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>workspace_id</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>user_query</t>
+  </si>
+  <si>
+    <t>generated</t>
+  </si>
+  <si>
+    <t>requestType</t>
+  </si>
+  <si>
+    <t>ips</t>
+  </si>
+  <si>
+    <t>proxy_condition</t>
+  </si>
+  <si>
+    <t>CSRFToken</t>
+  </si>
+  <si>
+    <t>proxy_ip</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>SyslogCollector</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-palo-fw02</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-linux01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-palo-fw01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism03</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism04</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism05</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism07</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism08</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism10</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism11</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism06</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism09</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-sharepoint</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-firepower02</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-firepower01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-beyondtrust-pam01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-beyondtrust-pam02</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-beyondtrust-pam03</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-beyondtrust-pam04</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism02</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism12</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism13</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism14</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism15</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism16</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism17</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism18</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-wism19</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-f5-ltm01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-f5-ltm02</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-iam01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-iam02</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-palo-fw03</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-palo-fw04</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-asa01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-cisco-asa02</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-igidb01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-igidb-acc01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-igildap01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-igildap-acc01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-dhcp01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-forum01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-oracle-ssp01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-oracle-ssp02</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-pwexilbl01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-pwexilbl02</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-pwexilbl03</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-pdepilb01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-linux02</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-linux03</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-linux04</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-linux05</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-linux06</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-linux07</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-linux08</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-checkpoint-fw01</t>
+  </si>
+  <si>
+    <t>syslog|device-esrin-checkpoint-fw02</t>
+  </si>
+  <si>
+    <t>SyslogParser</t>
+  </si>
+  <si>
+    <t>65a7f2a52b54a0ac74025da1</t>
+  </si>
+  <si>
+    <t>65a130972b54a0ac74025d99</t>
+  </si>
+  <si>
+    <t>65b8bc74b079f715b02651e6</t>
+  </si>
+  <si>
+    <t>65c2adeb39036802acf15971</t>
+  </si>
+  <si>
+    <t>65c2b06a39036802acf15973</t>
+  </si>
+  <si>
+    <t>65c332d9bceacf98775202d2</t>
+  </si>
+  <si>
+    <t>65c33d79bceacf98775202dd</t>
+  </si>
+  <si>
+    <t>utf_8</t>
+  </si>
+  <si>
+    <t>3b96d97a585044598e6f143ec8f62692</t>
+  </si>
+  <si>
+    <t>ced014091f2f49b4ab4277e0ca9d629c</t>
+  </si>
+  <si>
+    <t>bc0b463b617546a0bf448cf8cd9de75a</t>
+  </si>
+  <si>
+    <t>83c935de062a4938929b3ff2629193e3</t>
+  </si>
+  <si>
+    <t>074eedb3589e4f9a80b1b79d884e66be</t>
+  </si>
+  <si>
+    <t>5c817ae83ca94a9398f2867c9b2e9d0c</t>
+  </si>
+  <si>
+    <t>37a66bcb91d74de6b5ff51c736a4488c</t>
+  </si>
+  <si>
+    <t>b29125f9890c4c8d8fc778d1d3ac681c</t>
+  </si>
+  <si>
+    <t>fba00c9ccf7c4beca09cc1cc92d9195b</t>
+  </si>
+  <si>
+    <t>02af7b0431ff47efae906ca08cbbfeaa</t>
+  </si>
+  <si>
+    <t>9d366621dd914b048597882e1e562651</t>
+  </si>
+  <si>
+    <t>d04603d259d44693bafc1b6501e59cee</t>
+  </si>
+  <si>
+    <t>616ac7faa0a24577b346c4314919d3d0</t>
+  </si>
+  <si>
+    <t>552e3f34e65b49f7884d7eabd439c158</t>
+  </si>
+  <si>
+    <t>42e09bcf35b44520bba758c7151fd55e</t>
+  </si>
+  <si>
+    <t>edf210af149e420aae4e6cdd68d0ba7e</t>
+  </si>
+  <si>
+    <t>7fcca020360346f49e40a39251c8d845</t>
+  </si>
+  <si>
+    <t>e3f7ede64e6c41e0afa529c961a142d6</t>
+  </si>
+  <si>
+    <t>777f145727634da0b5d9bfd0f77ba6d8</t>
+  </si>
+  <si>
+    <t>edfa6cd8bf7746deae5576bea63c5f49</t>
+  </si>
+  <si>
+    <t>6427a4f4b0fb45bd9d2a457e3fff3420</t>
+  </si>
+  <si>
+    <t>b97f72993e344ef1b674458b8558e23f</t>
+  </si>
+  <si>
+    <t>f626ff17ec1e4a31ab85fb80e80c6447</t>
+  </si>
+  <si>
+    <t>91300acc70a84a5881f10fcbe4a6af20</t>
+  </si>
+  <si>
+    <t>c349c19921cd4b75ad016c4dcf3e69af</t>
+  </si>
+  <si>
+    <t>e6e45fb6dc654d73be995f4ddd5ec1da</t>
+  </si>
+  <si>
+    <t>4ac96532f0bf477292d49bc554979c2c</t>
+  </si>
+  <si>
+    <t>435d0cb373e2423d8c4e58d8651fe1de</t>
+  </si>
+  <si>
+    <t>d3963b8461294f18a68ab3577b3d6255</t>
+  </si>
+  <si>
+    <t>03d0d8e5e8c24541af5802552defcbf6</t>
+  </si>
+  <si>
+    <t>7b6b938ce33f41ac9cc3bad125c01feb</t>
+  </si>
+  <si>
+    <t>6638da8430f446edaaf3e351b8af5bbc</t>
+  </si>
+  <si>
+    <t>d1fca30ffedf43bfb286a5e22d8937d7</t>
+  </si>
+  <si>
+    <t>412508ee37ba440e83789ea5e87e9a6d</t>
+  </si>
+  <si>
+    <t>4325c34b0f034d15b3232c951f854812</t>
+  </si>
+  <si>
+    <t>89b81da8039c41389b70e185588180fb</t>
+  </si>
+  <si>
+    <t>b7aa031923194faf8401692bcfec4838</t>
+  </si>
+  <si>
+    <t>643276dcbcd740728adba5e1ea161a2c</t>
+  </si>
+  <si>
+    <t>14d6d87514404a0ba84d6ec7a6761abf</t>
+  </si>
+  <si>
+    <t>fab99b81effd4cde8721f68e91bbe71f</t>
+  </si>
+  <si>
+    <t>693727790c41457d9b0b92294aaae7a4</t>
+  </si>
+  <si>
+    <t>a9d57bc8201b4d38839ae9acd0982b75</t>
+  </si>
+  <si>
+    <t>1c27d8b64d4d4ff084dbcea6ed34a6ce</t>
+  </si>
+  <si>
+    <t>a1e14d6f3c094755a4a23fe6f798ca06</t>
+  </si>
+  <si>
+    <t>162a63eeb2814f76b3451c5794b40e2e</t>
+  </si>
+  <si>
+    <t>6b11dcf25dc04b0e814e1442478f0b9d</t>
+  </si>
+  <si>
+    <t>2e04920a315d4ff4ac87317b8b752b48</t>
+  </si>
+  <si>
+    <t>da114b29aa4b4af58221108c8acfab6c</t>
+  </si>
+  <si>
+    <t>e27ace8e85a44bf5aee79be1d64839cf</t>
+  </si>
+  <si>
+    <t>d579105eb3cc46a1a63a31851b801c02</t>
+  </si>
+  <si>
+    <t>a4db75b5b51a4c84818c604df766a0f8</t>
+  </si>
+  <si>
+    <t>000e9542d63a45fdbd31008d33ea51ca</t>
+  </si>
+  <si>
+    <t>54bbbf21be294080bba14ed9f451264c</t>
+  </si>
+  <si>
+    <t>ad73e7f39a37461fa1909f0b3ec25575</t>
+  </si>
+  <si>
+    <t>4a4ea9352bae4c4e97180b4fed4662d5</t>
+  </si>
+  <si>
+    <t>cb4127a1f4f343e6aed44ad66e9ba80f</t>
+  </si>
+  <si>
+    <t>9b36b32df61e4e0dab1a344ededfdd23</t>
+  </si>
+  <si>
+    <t>b8a97d607b4544bca5f2a9a6e657c3a1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>formsubmit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.17.20.7</t>
+  </si>
+  <si>
+    <t>uses_proxy</t>
+  </si>
+  <si>
+    <t>f0749045-a0e9-4cbb-94ba-d2e87bb54d76</t>
+  </si>
+  <si>
+    <t>1e4eb898-f4b4-4d2a-a658-ceb31c1cdac6</t>
+  </si>
+  <si>
+    <t>aefd710d-dd2e-47c7-bc14-e7d66fa4c7c6</t>
+  </si>
+  <si>
+    <t>5568abca-b988-42f0-979d-ea1121149f23</t>
+  </si>
+  <si>
+    <t>387d00b7-c646-483b-9ebd-b3c0cf3b1c67</t>
+  </si>
+  <si>
+    <t>['10.21.58.7', '10.21.58.11', '10.21.58.8']</t>
+  </si>
+  <si>
+    <t>['10.21.58.8', '10.21.58.7', '10.21.58.11']</t>
+  </si>
+  <si>
+    <t>['10.21.58.7', '10.21.58.8', '10.21.58.11']</t>
+  </si>
+  <si>
+    <t>['10.21.58.7']</t>
+  </si>
+  <si>
+    <t>['172.18.11.218']</t>
+  </si>
+  <si>
+    <t>['10.32.3.10']</t>
+  </si>
+  <si>
+    <t>['172.18.11.216']</t>
+  </si>
+  <si>
+    <t>['10.101.9.194']</t>
+  </si>
+  <si>
+    <t>['10.16.2.191']</t>
+  </si>
+  <si>
+    <t>['10.16.2.194']</t>
+  </si>
+  <si>
+    <t>['10.66.0.191']</t>
+  </si>
+  <si>
+    <t>['10.66.0.194']</t>
+  </si>
+  <si>
+    <t>['172.16.32.198']</t>
+  </si>
+  <si>
+    <t>['172.16.32.199']</t>
+  </si>
+  <si>
+    <t>['10.32.6.191']</t>
+  </si>
+  <si>
+    <t>['10.82.7.191']</t>
+  </si>
+  <si>
+    <t>['10.113.5.121']</t>
+  </si>
+  <si>
+    <t>['10.21.95.33']</t>
+  </si>
+  <si>
+    <t>['10.181.95.33']</t>
+  </si>
+  <si>
+    <t>['10.28.2.10']</t>
+  </si>
+  <si>
+    <t>['10.28.2.11']</t>
+  </si>
+  <si>
+    <t>['10.28.2.12']</t>
+  </si>
+  <si>
+    <t>['10.28.2.9']</t>
+  </si>
+  <si>
+    <t>['10.101.9.191']</t>
+  </si>
+  <si>
+    <t>['10.101.9.192']</t>
+  </si>
+  <si>
+    <t>['10.250.250.161']</t>
+  </si>
+  <si>
+    <t>['10.250.250.191']</t>
+  </si>
+  <si>
+    <t>['10.250.250.194']</t>
+  </si>
+  <si>
+    <t>['10.32.6.194']</t>
+  </si>
+  <si>
+    <t>['10.48.2.191']</t>
+  </si>
+  <si>
+    <t>['10.48.2.194']</t>
+  </si>
+  <si>
+    <t>['10.66.0.192']</t>
+  </si>
+  <si>
+    <t>['10.82.7.192']</t>
+  </si>
+  <si>
+    <t>['10.113.5.60']</t>
+  </si>
+  <si>
+    <t>['10.113.5.62']</t>
+  </si>
+  <si>
+    <t>['10.21.75.30']</t>
+  </si>
+  <si>
+    <t>['10.21.75.21']</t>
+  </si>
+  <si>
+    <t>['172.18.11.217']</t>
+  </si>
+  <si>
+    <t>['172.18.11.219']</t>
+  </si>
+  <si>
+    <t>['10.32.12.29']</t>
+  </si>
+  <si>
+    <t>['10.32.12.30']</t>
+  </si>
+  <si>
+    <t>['10.21.75.18']</t>
+  </si>
+  <si>
+    <t>['10.21.75.5']</t>
+  </si>
+  <si>
+    <t>['10.21.75.17']</t>
+  </si>
+  <si>
+    <t>['10.21.75.6']</t>
+  </si>
+  <si>
+    <t>['10.48.3.10']</t>
+  </si>
+  <si>
+    <t>['10.17.20.202']</t>
+  </si>
+  <si>
+    <t>['10.17.20.7']</t>
+  </si>
+  <si>
+    <t>['10.17.20.33']</t>
+  </si>
+  <si>
+    <t>['10.17.12.186']</t>
+  </si>
+  <si>
+    <t>['10.17.14.111']</t>
+  </si>
+  <si>
+    <t>['10.17.14.163']</t>
+  </si>
+  <si>
+    <t>['10.182.17.35']</t>
+  </si>
+  <si>
+    <t>['10.182.17.56']</t>
+  </si>
+  <si>
+    <t>['10.182.17.146']</t>
+  </si>
+  <si>
+    <t>['10.17.8.20']</t>
+  </si>
+  <si>
+    <t>['10.17.8.11']</t>
+  </si>
+  <si>
+    <t>['10.32.63.49']</t>
+  </si>
+  <si>
+    <t>['10.182.17.48']</t>
+  </si>
+  <si>
+    <t>['10.182.17.54']</t>
+  </si>
+  <si>
+    <t>['10.21.67.1']</t>
+  </si>
+  <si>
+    <t>['10.22.5.1']</t>
+  </si>
+  <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>device_ids</t>
+  </si>
+  <si>
+    <t>62dcbda0eea1924ff18d9f85</t>
+  </si>
+  <si>
+    <t>62dcbda0eea1924ff18d9f86</t>
+  </si>
+  <si>
+    <t>65afee1d09bf73cfbe066722</t>
+  </si>
+  <si>
+    <t>65afee6a09bf73cfbe066724</t>
+  </si>
+  <si>
+    <t>65b8bae4aea757f53ddbff2c</t>
+  </si>
+  <si>
+    <t>65b8bb02b079f715b02651e1</t>
+  </si>
+  <si>
+    <t>65b8bb1cb079f715b02651e3</t>
+  </si>
+  <si>
+    <t>65b8bb3609bf73cfbe06672d</t>
+  </si>
+  <si>
+    <t>65c2b62a39036802acf15976</t>
+  </si>
+  <si>
+    <t>65c3373039036802acf15984</t>
+  </si>
+  <si>
+    <t>65e86767d2a52d70040b4544</t>
+  </si>
+  <si>
+    <t>65f04ee19f26de83ed50e5d0</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
     <t>log_proxy</t>
   </si>
   <si>
-    <t>firewall</t>
-  </si>
-  <si>
-    <t>linux</t>
-  </si>
-  <si>
-    <t>wireless</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>PAM</t>
-  </si>
-  <si>
-    <t>LTM</t>
-  </si>
-  <si>
-    <t>identity</t>
-  </si>
-  <si>
-    <t>oracle</t>
-  </si>
-  <si>
-    <t>65ddcf9fbc253dd6610452a5 | 65a10dae2b54a0ac74025d96</t>
-  </si>
-  <si>
-    <t>65a10dae2b54a0ac74025d96</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Minimal</t>
-  </si>
-  <si>
-    <t>device_name</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>sid</t>
-  </si>
-  <si>
-    <t>parser</t>
-  </si>
-  <si>
-    <t>processpolicy</t>
-  </si>
-  <si>
-    <t>charset</t>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>excludes</t>
-  </si>
-  <si>
-    <t>hasLCP</t>
-  </si>
-  <si>
-    <t>client_id</t>
-  </si>
-  <si>
-    <t>api_key</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>fetch_interval</t>
-  </si>
-  <si>
-    <t>LOGGEDINUSER</t>
-  </si>
-  <si>
-    <t>proxy</t>
-  </si>
-  <si>
-    <t>authorization_url</t>
-  </si>
-  <si>
-    <t>client_secret</t>
-  </si>
-  <si>
-    <t>events_url</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>workspace_id</t>
-  </si>
-  <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>user_query</t>
-  </si>
-  <si>
-    <t>generated</t>
-  </si>
-  <si>
-    <t>requestType</t>
-  </si>
-  <si>
-    <t>ips</t>
-  </si>
-  <si>
-    <t>proxy_condition</t>
-  </si>
-  <si>
-    <t>CSRFToken</t>
-  </si>
-  <si>
-    <t>proxy_ip</t>
-  </si>
-  <si>
-    <t>hostname</t>
-  </si>
-  <si>
-    <t>SyslogCollector</t>
-  </si>
-  <si>
-    <t>syslog|device-esait-log-proxy1</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-palo-fw02</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-linux01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-palo-fw01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism03</t>
-  </si>
-  <si>
-    <t>syslog|device-esait-TenantLogGen</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism04</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism05</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism07</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism08</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism10</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism11</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism06</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism09</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-sharepoint</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-firepower02</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-firepower01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-beyondtrust-pam01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-beyondtrust-pam02</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-beyondtrust-pam03</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-beyondtrust-pam04</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism02</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism12</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism13</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism14</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism15</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism16</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism17</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism18</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-wism19</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-f5-ltm01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-f5-ltm02</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-iam01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-iam02</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-palo-fw03</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-palo-fw04</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-asa01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-cisco-asa02</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-igidb01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-igidb-acc01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-igildap01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-igildap-acc01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-dhcp01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-forum01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-oracle-ssp01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-oracle-ssp02</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-pwexilbl01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-pwexilbl02</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-pwexilbl03</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-pdepilb01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-linux02</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-linux03</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-linux04</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-linux05</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-linux06</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-linux07</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-linux08</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-checkpoint-fw01</t>
-  </si>
-  <si>
-    <t>syslog|device-esrin-checkpoint-fw02</t>
-  </si>
-  <si>
-    <t>syslog|device-esait-TenantLogGen2</t>
-  </si>
-  <si>
-    <t>syslog|device-esait-log-proxy2</t>
-  </si>
-  <si>
-    <t>syslog|device-esait-log-proxy3</t>
-  </si>
-  <si>
-    <t>SyslogParser</t>
-  </si>
-  <si>
-    <t>65a7f2a52b54a0ac74025da1</t>
-  </si>
-  <si>
-    <t>65a130972b54a0ac74025d99</t>
-  </si>
-  <si>
-    <t>65b8bc74b079f715b02651e6</t>
-  </si>
-  <si>
-    <t>65c2adeb39036802acf15971</t>
-  </si>
-  <si>
-    <t>65c2b06a39036802acf15973</t>
-  </si>
-  <si>
-    <t>65c332d9bceacf98775202d2</t>
-  </si>
-  <si>
-    <t>65c33d79bceacf98775202dd</t>
-  </si>
-  <si>
-    <t>utf_8</t>
-  </si>
-  <si>
-    <t>4cb98272d54a4213a2d26ed846c3e548</t>
-  </si>
-  <si>
-    <t>3b96d97a585044598e6f143ec8f62692</t>
-  </si>
-  <si>
-    <t>ced014091f2f49b4ab4277e0ca9d629c</t>
-  </si>
-  <si>
-    <t>bc0b463b617546a0bf448cf8cd9de75a</t>
-  </si>
-  <si>
-    <t>83c935de062a4938929b3ff2629193e3</t>
-  </si>
-  <si>
-    <t>914d2796abad4a7aa981c6f35f6b2741</t>
-  </si>
-  <si>
-    <t>074eedb3589e4f9a80b1b79d884e66be</t>
-  </si>
-  <si>
-    <t>5c817ae83ca94a9398f2867c9b2e9d0c</t>
-  </si>
-  <si>
-    <t>37a66bcb91d74de6b5ff51c736a4488c</t>
-  </si>
-  <si>
-    <t>b29125f9890c4c8d8fc778d1d3ac681c</t>
-  </si>
-  <si>
-    <t>fba00c9ccf7c4beca09cc1cc92d9195b</t>
-  </si>
-  <si>
-    <t>02af7b0431ff47efae906ca08cbbfeaa</t>
-  </si>
-  <si>
-    <t>9d366621dd914b048597882e1e562651</t>
-  </si>
-  <si>
-    <t>d04603d259d44693bafc1b6501e59cee</t>
-  </si>
-  <si>
-    <t>616ac7faa0a24577b346c4314919d3d0</t>
-  </si>
-  <si>
-    <t>552e3f34e65b49f7884d7eabd439c158</t>
-  </si>
-  <si>
-    <t>42e09bcf35b44520bba758c7151fd55e</t>
-  </si>
-  <si>
-    <t>edf210af149e420aae4e6cdd68d0ba7e</t>
-  </si>
-  <si>
-    <t>7fcca020360346f49e40a39251c8d845</t>
-  </si>
-  <si>
-    <t>e3f7ede64e6c41e0afa529c961a142d6</t>
-  </si>
-  <si>
-    <t>777f145727634da0b5d9bfd0f77ba6d8</t>
-  </si>
-  <si>
-    <t>edfa6cd8bf7746deae5576bea63c5f49</t>
-  </si>
-  <si>
-    <t>6427a4f4b0fb45bd9d2a457e3fff3420</t>
-  </si>
-  <si>
-    <t>b97f72993e344ef1b674458b8558e23f</t>
-  </si>
-  <si>
-    <t>f626ff17ec1e4a31ab85fb80e80c6447</t>
-  </si>
-  <si>
-    <t>91300acc70a84a5881f10fcbe4a6af20</t>
-  </si>
-  <si>
-    <t>c349c19921cd4b75ad016c4dcf3e69af</t>
-  </si>
-  <si>
-    <t>e6e45fb6dc654d73be995f4ddd5ec1da</t>
-  </si>
-  <si>
-    <t>4ac96532f0bf477292d49bc554979c2c</t>
-  </si>
-  <si>
-    <t>435d0cb373e2423d8c4e58d8651fe1de</t>
-  </si>
-  <si>
-    <t>d3963b8461294f18a68ab3577b3d6255</t>
-  </si>
-  <si>
-    <t>03d0d8e5e8c24541af5802552defcbf6</t>
-  </si>
-  <si>
-    <t>7b6b938ce33f41ac9cc3bad125c01feb</t>
-  </si>
-  <si>
-    <t>6638da8430f446edaaf3e351b8af5bbc</t>
-  </si>
-  <si>
-    <t>d1fca30ffedf43bfb286a5e22d8937d7</t>
-  </si>
-  <si>
-    <t>412508ee37ba440e83789ea5e87e9a6d</t>
-  </si>
-  <si>
-    <t>4325c34b0f034d15b3232c951f854812</t>
-  </si>
-  <si>
-    <t>89b81da8039c41389b70e185588180fb</t>
-  </si>
-  <si>
-    <t>b7aa031923194faf8401692bcfec4838</t>
-  </si>
-  <si>
-    <t>643276dcbcd740728adba5e1ea161a2c</t>
-  </si>
-  <si>
-    <t>14d6d87514404a0ba84d6ec7a6761abf</t>
-  </si>
-  <si>
-    <t>fab99b81effd4cde8721f68e91bbe71f</t>
-  </si>
-  <si>
-    <t>693727790c41457d9b0b92294aaae7a4</t>
-  </si>
-  <si>
-    <t>a9d57bc8201b4d38839ae9acd0982b75</t>
-  </si>
-  <si>
-    <t>1c27d8b64d4d4ff084dbcea6ed34a6ce</t>
-  </si>
-  <si>
-    <t>a1e14d6f3c094755a4a23fe6f798ca06</t>
-  </si>
-  <si>
-    <t>162a63eeb2814f76b3451c5794b40e2e</t>
-  </si>
-  <si>
-    <t>6b11dcf25dc04b0e814e1442478f0b9d</t>
-  </si>
-  <si>
-    <t>2e04920a315d4ff4ac87317b8b752b48</t>
-  </si>
-  <si>
-    <t>da114b29aa4b4af58221108c8acfab6c</t>
-  </si>
-  <si>
-    <t>e27ace8e85a44bf5aee79be1d64839cf</t>
-  </si>
-  <si>
-    <t>d579105eb3cc46a1a63a31851b801c02</t>
-  </si>
-  <si>
-    <t>a4db75b5b51a4c84818c604df766a0f8</t>
-  </si>
-  <si>
-    <t>000e9542d63a45fdbd31008d33ea51ca</t>
-  </si>
-  <si>
-    <t>54bbbf21be294080bba14ed9f451264c</t>
-  </si>
-  <si>
-    <t>ad73e7f39a37461fa1909f0b3ec25575</t>
-  </si>
-  <si>
-    <t>4a4ea9352bae4c4e97180b4fed4662d5</t>
-  </si>
-  <si>
-    <t>cb4127a1f4f343e6aed44ad66e9ba80f</t>
-  </si>
-  <si>
-    <t>9b36b32df61e4e0dab1a344ededfdd23</t>
-  </si>
-  <si>
-    <t>b8a97d607b4544bca5f2a9a6e657c3a1</t>
-  </si>
-  <si>
-    <t>7d2281c162684709a9a37e5d2e2c2c02</t>
-  </si>
-  <si>
-    <t>5f2b677642354ff78dde4316d69f3f39</t>
-  </si>
-  <si>
-    <t>eb869536a55941ed8ce857575e7c949a</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>formsubmit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.17.20.7</t>
-  </si>
-  <si>
-    <t>use_as_proxy</t>
-  </si>
-  <si>
-    <t>uses_proxy</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>32945e8f-6821-4493-b065-71a8069af3cb</t>
-  </si>
-  <si>
-    <t>f0749045-a0e9-4cbb-94ba-d2e87bb54d76</t>
-  </si>
-  <si>
-    <t>1e4eb898-f4b4-4d2a-a658-ceb31c1cdac6</t>
-  </si>
-  <si>
-    <t>aefd710d-dd2e-47c7-bc14-e7d66fa4c7c6</t>
-  </si>
-  <si>
-    <t>0e920e86-829a-4200-a8e3-2cb3209d1133</t>
-  </si>
-  <si>
-    <t>5568abca-b988-42f0-979d-ea1121149f23</t>
-  </si>
-  <si>
-    <t>387d00b7-c646-483b-9ebd-b3c0cf3b1c67</t>
-  </si>
-  <si>
-    <t>44a65282-7df6-476a-9fca-6e41cdb6d3ec</t>
-  </si>
-  <si>
-    <t>e6a15825-6656-4367-8795-16c29ed4b8ce</t>
-  </si>
-  <si>
-    <t>['10.21.58.7', '10.21.58.11', '10.21.58.8']</t>
-  </si>
-  <si>
-    <t>['10.21.58.8', '10.21.58.7', '10.21.58.11']</t>
-  </si>
-  <si>
-    <t>['10.21.58.7', '10.21.58.8', '10.21.58.11']</t>
-  </si>
-  <si>
-    <t>['10.21.58.7']</t>
-  </si>
-  <si>
-    <t>['172.18.11.218']</t>
-  </si>
-  <si>
-    <t>['10.32.3.10']</t>
-  </si>
-  <si>
-    <t>['172.18.11.216']</t>
-  </si>
-  <si>
-    <t>['10.101.9.194']</t>
-  </si>
-  <si>
-    <t>['10.16.2.191']</t>
-  </si>
-  <si>
-    <t>['10.16.2.194']</t>
-  </si>
-  <si>
-    <t>['10.66.0.191']</t>
-  </si>
-  <si>
-    <t>['10.66.0.194']</t>
-  </si>
-  <si>
-    <t>['172.16.32.198']</t>
-  </si>
-  <si>
-    <t>['172.16.32.199']</t>
-  </si>
-  <si>
-    <t>['10.32.6.191']</t>
-  </si>
-  <si>
-    <t>['10.82.7.191']</t>
-  </si>
-  <si>
-    <t>['10.113.5.121']</t>
-  </si>
-  <si>
-    <t>['10.21.95.33']</t>
-  </si>
-  <si>
-    <t>['10.181.95.33']</t>
-  </si>
-  <si>
-    <t>['10.28.2.10']</t>
-  </si>
-  <si>
-    <t>['10.28.2.11']</t>
-  </si>
-  <si>
-    <t>['10.28.2.12']</t>
-  </si>
-  <si>
-    <t>['10.28.2.9']</t>
-  </si>
-  <si>
-    <t>['10.101.9.191']</t>
-  </si>
-  <si>
-    <t>['10.101.9.192']</t>
-  </si>
-  <si>
-    <t>['10.250.250.161']</t>
-  </si>
-  <si>
-    <t>['10.250.250.191']</t>
-  </si>
-  <si>
-    <t>['10.250.250.194']</t>
-  </si>
-  <si>
-    <t>['10.32.6.194']</t>
-  </si>
-  <si>
-    <t>['10.48.2.191']</t>
-  </si>
-  <si>
-    <t>['10.48.2.194']</t>
-  </si>
-  <si>
-    <t>['10.66.0.192']</t>
-  </si>
-  <si>
-    <t>['10.82.7.192']</t>
-  </si>
-  <si>
-    <t>['10.113.5.60']</t>
-  </si>
-  <si>
-    <t>['10.113.5.62']</t>
-  </si>
-  <si>
-    <t>['10.21.75.30']</t>
-  </si>
-  <si>
-    <t>['10.21.75.21']</t>
-  </si>
-  <si>
-    <t>['172.18.11.217']</t>
-  </si>
-  <si>
-    <t>['172.18.11.219']</t>
-  </si>
-  <si>
-    <t>['10.32.12.29']</t>
-  </si>
-  <si>
-    <t>['10.32.12.30']</t>
-  </si>
-  <si>
-    <t>['10.21.75.18']</t>
-  </si>
-  <si>
-    <t>['10.21.75.5']</t>
-  </si>
-  <si>
-    <t>['10.21.75.17']</t>
-  </si>
-  <si>
-    <t>['10.21.75.6']</t>
-  </si>
-  <si>
-    <t>['10.48.3.10']</t>
-  </si>
-  <si>
-    <t>['10.17.20.202']</t>
-  </si>
-  <si>
-    <t>['10.17.20.7']</t>
-  </si>
-  <si>
-    <t>['10.17.20.33']</t>
-  </si>
-  <si>
-    <t>['10.17.12.186']</t>
-  </si>
-  <si>
-    <t>['10.17.14.111']</t>
-  </si>
-  <si>
-    <t>['10.17.14.163']</t>
-  </si>
-  <si>
-    <t>['10.182.17.35']</t>
-  </si>
-  <si>
-    <t>['10.182.17.56']</t>
-  </si>
-  <si>
-    <t>['10.182.17.146']</t>
-  </si>
-  <si>
-    <t>['10.17.8.20']</t>
-  </si>
-  <si>
-    <t>['10.17.8.11']</t>
-  </si>
-  <si>
-    <t>['10.32.63.49']</t>
-  </si>
-  <si>
-    <t>['10.182.17.48']</t>
-  </si>
-  <si>
-    <t>['10.182.17.54']</t>
-  </si>
-  <si>
-    <t>['10.21.67.1']</t>
-  </si>
-  <si>
-    <t>['10.22.5.1']</t>
-  </si>
-  <si>
-    <t>group_id</t>
-  </si>
-  <si>
-    <t>device_ids</t>
-  </si>
-  <si>
-    <t>62dcbda0eea1924ff18d9f85</t>
-  </si>
-  <si>
-    <t>62dcbda0eea1924ff18d9f86</t>
-  </si>
-  <si>
-    <t>65afee1d09bf73cfbe066722</t>
-  </si>
-  <si>
-    <t>65afee6a09bf73cfbe066724</t>
-  </si>
-  <si>
-    <t>65b8bae4aea757f53ddbff2c</t>
-  </si>
-  <si>
-    <t>65b8bb02b079f715b02651e1</t>
-  </si>
-  <si>
-    <t>65b8bb1cb079f715b02651e3</t>
-  </si>
-  <si>
-    <t>65b8bb3609bf73cfbe06672d</t>
-  </si>
-  <si>
-    <t>65c2b62a39036802acf15976</t>
-  </si>
-  <si>
-    <t>65c3373039036802acf15984</t>
-  </si>
-  <si>
-    <t>65e86767d2a52d70040b4544</t>
-  </si>
-  <si>
-    <t>65f04ee19f26de83ed50e5d0</t>
-  </si>
-  <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>VPN</t>
-  </si>
-  <si>
     <t>RSA</t>
   </si>
   <si>
@@ -1829,54 +1735,192 @@
     <t>65d714a3bc253dd6610452a3 | 65d7121229b9e83bc200591c</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>usergroup_id</t>
+  </si>
+  <si>
+    <t>preferences</t>
+  </si>
+  <si>
+    <t>62dcbda0eea1924ff18d9f74</t>
+  </si>
+  <si>
+    <t>64ff36a25aaee58760df2766</t>
+  </si>
+  <si>
+    <t>650c151dfcc3084c80c082e5</t>
+  </si>
+  <si>
+    <t>65afefd2b079f715b02651c9</t>
+  </si>
+  <si>
+    <t>65bbc347d4f35cfb51a072ae</t>
+  </si>
+  <si>
+    <t>65bbc37bd4f35cfb51a072b4</t>
+  </si>
+  <si>
+    <t>Operator1</t>
+  </si>
+  <si>
+    <t>sc3</t>
+  </si>
+  <si>
+    <t>pentest</t>
+  </si>
+  <si>
+    <t>ldap_CN=SIEM-Admin-User,OU=RoleUsers,OU=Users,OU=CORE,DC=csoc,DC=esa,DC=int</t>
+  </si>
+  <si>
+    <t>ldap_CN=SIEM-Eng-User,OU=RoleUsers,OU=Users,OU=CORE,DC=csoc,DC=esa,DC=int</t>
+  </si>
+  <si>
+    <t>Admin Admin</t>
+  </si>
+  <si>
+    <t>Operator One</t>
+  </si>
+  <si>
+    <t>SC3 SC3</t>
+  </si>
+  <si>
+    <t>Tester PEN</t>
+  </si>
+  <si>
+    <t>SIEM-Admin-User</t>
+  </si>
+  <si>
+    <t>SIEM-Eng-User</t>
+  </si>
+  <si>
+    <t>op.one@logpoint.ld</t>
+  </si>
+  <si>
+    <t>sc3@logpoint.com</t>
+  </si>
+  <si>
+    <t>pentest@logpoint.local</t>
+  </si>
+  <si>
+    <t>['62dcbda0eea1924ff18d9f6f']</t>
+  </si>
+  <si>
+    <t>{"search_help_popup": false, "hour_format": "24 Hour", "date_format": "%Y/%m/%d", "ui_theme": "default", "settings_help": true, "result_limit": 25, "shouldPrecompute": true, "search_histogram_hidden": false, "interesting_fields_disabled": false, "growl_position": "br"}</t>
+  </si>
+  <si>
+    <t>{"search_help_popup": false, "hour_format": "24 Hour", "date_format": "%Y/%m/%d", "ui_theme": "default", "growl_position": "br", "shouldPrecompute": true, "result_limit": 25, "search_histogram_hidden": false, "settings_help": null}</t>
+  </si>
+  <si>
+    <t>permission_group</t>
+  </si>
+  <si>
+    <t>object_permission</t>
+  </si>
+  <si>
+    <t>62dcbda0eea1924ff18d9f6f</t>
+  </si>
+  <si>
+    <t>62dcbda0eea1924ff18d9f70</t>
+  </si>
+  <si>
+    <t>64ff364914ffe837afabc91f</t>
+  </si>
+  <si>
+    <t>LogPoint Administrator</t>
+  </si>
+  <si>
+    <t>User Account Administrator</t>
+  </si>
+  <si>
+    <t>operator_group</t>
+  </si>
+  <si>
+    <t>This user group is highly privileged user group.
+                          The users within this group has access to the
+                          most restricted system related areas-
+                          System Settings, LogPoint License, Software Updates,
+                          Security Updates, Application Installation and
+                          Backup/Restore.</t>
+  </si>
+  <si>
+    <t>The user group has all permissions except the system
+           related permissions that the LogPoint Administrators group has.</t>
+  </si>
+  <si>
+    <t>"admin"</t>
+  </si>
+  <si>
+    <t>"operator"</t>
+  </si>
+  <si>
+    <t>{"allowed_all": true, "permitted": []}</t>
+  </si>
+  <si>
+    <t>{"allowed_all": false, "permitted": [{"logpoint_name": "siem-backend", "logpoint_ip": "127.0.0.1", "device_groups": [{"all": true, "name": "windows", "devices": [{"ips": ["10.93.8.26"], "all": true, "name": "core-ojs"}, {"ips": ["10.93.8.27"], "all": true, "name": "core-tajs"}, {"ips": ["10.93.11.11"], "all": true, "name": "core-ijs"}, {"ips": ["10.93.9.31"], "all": true, "name": "sccoe-csoc-rfsa-rf-cas"}, {"ips": ["10.93.8.247"], "all": true, "name": "TEMP-QR-SCCOE-Victim"}, {"ips": ["10.44.36.9"], "all": true, "name": "TEMP-QR-MOI-Victim"}, {"ips": ["10.93.11.10"], "all": true, "name": "core-vs1-p001esadc"}, {"ips": ["10.44.35.10"], "all": true, "name": "core-vs2-p001esadc"}, {"ips": ["10.93.8.243"], "all": true, "name": "sccoe-ar-victim"}, {"ips": ["10.44.36.12"], "all": true, "name": "moi-ar-victim"}]}, {"all": true, "name": "linux", "devices": [{"ips": ["127.0.0.1", "::1"], "all": true, "name": "localhost"}, {"ips": ["10.93.8.246"], "all": true, "name": "sccoe-TenantLogGen"}, {"ips": ["10.93.9.32"], "all": true, "name": "core-tenable.sc"}, {"ips": ["10.93.9.245"], "all": true, "name": "core-edr-log"}, {"ips": ["10.44.36.5"], "all": true, "name": "moi-sanm"}, {"ips": ["10.32.3.10"], "all": true, "name": "esrin-linux01"}, {"ips": ["10.93.9.34"], "all": true, "name": "core-deception-acm"}, {"ips": ["10.44.36.11"], "all": true, "name": "moi-TenantLogGen"}, {"ips": ["10.28.9.131"], "all": true, "name": "esait-TenantLogGen"}, {"ips": ["10.48.3.10"], "all": true, "name": "esrin-dhcp01"}, {"ips": ["10.17.20.202"], "all": true, "name": "esrin-forum01"}, {"ips": ["10.182.17.56"], "all": true, "name": "esrin-linux02"}, {"ips": ["10.182.17.146"], "all": true, "name": "esrin-linux03"}, {"ips": ["10.17.8.20"], "all": true, "name": "esrin-linux04"}, {"ips": ["10.17.8.11"], "all": true, "name": "esrin-linux05"}, {"ips": ["10.32.63.49"], "all": true, "name": "esrin-linux06"}, {"ips": ["10.182.17.48"], "all": true, "name": "esrin-linux07"}, {"ips": ["10.182.17.54"], "all": true, "name": "esrin-linux08"}, {"ips": ["10.93.11.14"], "all": true, "name": "core-vs1-p001esarsam"}, {"ips": ["10.44.35.14"], "all": true, "name": "core-vs2-p001esarsam"}, {"ips": ["10.93.8.241"], "all": true, "name": "sccoe-TenantLogGen2"}, {"ips": ["10.28.9.132"], "all": true, "name": "esait-TenantLogGen2"}, {"ips": ["10.181.238.68"], "all": true, "name": "tia-TenantLogGen"}]}, {"all": true, "name": "firewall", "devices": [{"ips": ["10.93.10.254"], "all": true, "name": "core-csoc-prod-esec-pri-fw1"}, {"ips": ["172.18.11.218"], "all": true, "name": "esrin-palo-fw02"}, {"ips": ["172.18.11.216"], "all": true, "name": "esrin-palo-fw01"}, {"ips": ["10.21.95.33"], "all": true, "name": "esrin-cisco-firepower02"}, {"ips": ["10.181.95.33"], "all": true, "name": "esrin-cisco-firepower01"}, {"ips": ["172.18.11.217"], "all": true, "name": "esrin-palo-fw03"}, {"ips": ["172.18.11.219"], "all": true, "name": "esrin-palo-fw04"}, {"ips": ["10.21.67.1"], "all": true, "name": "esrin-checkpoint-fw01"}, {"ips": ["10.22.5.1"], "all": true, "name": "esrin-checkpoint-fw02"}]}, {"all": true, "name": "others", "devices": [{"ips": ["10.93.8.252"], "all": true, "name": "sccoe-sanm"}, {"ips": ["10.113.5.121"], "all": true, "name": "esrin-sharepoint"}, {"ips": ["10.32.12.29"], "all": true, "name": "esrin-cisco-asa01"}, {"ips": ["10.32.12.30"], "all": true, "name": "esrin-cisco-asa02"}, {"ips": ["10.17.12.186"], "all": true, "name": "esrin-pwexilbl01"}, {"ips": ["10.17.14.111"], "all": true, "name": "esrin-pwexilbl02"}, {"ips": ["10.17.14.163"], "all": true, "name": "esrin-pwexilbl03"}, {"ips": ["10.182.17.35"], "all": true, "name": "esrin-pdepilb01"}]}, {"all": true, "name": "wireless", "devices": [{"ips": ["10.101.9.194"], "all": true, "name": "esrin-cisco-wism03"}, {"ips": ["10.16.2.191"], "all": true, "name": "esrin-cisco-wism04"}, {"ips": ["10.16.2.194"], "all": true, "name": "esrin-cisco-wism05"}, {"ips": ["10.66.0.191"], "all": true, "name": "esrin-cisco-wism07"}, {"ips": ["10.66.0.194"], "all": true, "name": "esrin-cisco-wism08"}, {"ips": ["172.16.32.198"], "all": true, "name": "esrin-cisco-wism10"}, {"ips": ["172.16.32.199"], "all": true, "name": "esrin-cisco-wism11"}, {"ips": ["10.32.6.191"], "all": true, "name": "esrin-cisco-wism06"}, {"ips": ["10.82.7.191"], "all": true, "name": "esrin-cisco-wism09"}, {"ips": ["10.101.9.191"], "all": true, "name": "esrin-cisco-wism01"}, {"ips": ["10.101.9.192"], "all": true, "name": "esrin-cisco-wism02"}, {"ips": ["10.250.250.161"], "all": true, "name": "esrin-cisco-wism12"}, {"ips": ["10.250.250.191"], "all": true, "name": "esrin-cisco-wism13"}, {"ips": ["10.250.250.194"], "all": true, "name": "esrin-cisco-wism14"}, {"ips": ["10.32.6.194"], "all": true, "name": "esrin-cisco-wism15"}, {"ips": ["10.48.2.191"], "all": true, "name": "esrin-cisco-wism16"}, {"ips": ["10.48.2.194"], "all": true, "name": "esrin-cisco-wism17"}, {"ips": ["10.66.0.192"], "all": true, "name": "esrin-cisco-wism18"}, {"ips": ["10.82.7.192"], "all": true, "name": "esrin-cisco-wism19"}]}, {"all": true, "name": "identity", "devices": [{"ips": ["10.21.75.30"], "all": true, "name": "esrin-iam01"}, {"ips": ["10.21.75.21"], "all": true, "name": "esrin-iam02"}, {"ips": ["10.21.75.18"], "all": true, "name": "esrin-igidb01"}, {"ips": ["10.21.75.5"], "all": true, "name": "esrin-igidb-acc01"}, {"ips": ["10.21.75.17"], "all": true, "name": "esrin-igildap01"}, {"ips": ["10.21.75.6"], "all": true, "name": "esrin-igildap-acc01"}]}, {"all": true, "name": "LTM", "devices": [{"ips": ["10.113.5.60"], "all": true, "name": "esrin-f5-ltm01"}, {"ips": ["10.113.5.62"], "all": true, "name": "esrin-f5-ltm02"}]}, {"all": true, "name": "VPN", "devices": []}, {"all": true, "name": "PAM", "devices": [{"ips": ["10.28.2.10"], "all": true, "name": "esrin-beyondtrust-pam01"}, {"ips": ["10.28.2.11"], "all": true, "name": "esrin-beyondtrust-pam02"}, {"ips": ["10.28.2.12"], "all": true, "name": "esrin-beyondtrust-pam03"}, {"ips": ["10.28.2.9"], "all": true, "name": "esrin-beyondtrust-pam04"}]}, {"all": true, "name": "oracle", "devices": [{"ips": ["10.17.20.7"], "all": true, "name": "esrin-oracle-ssp01"}, {"ips": ["10.17.20.33"], "all": true, "name": "esrin-oracle-ssp02"}]}, {"all": true, "name": "log_proxy", "devices": [{"ips": ["10.21.58.7"], "all": true, "name": "esait-log-proxy1"}, {"ips": ["10.99.89.43"], "all": true, "name": "moi-log-proxy1"}, {"ips": ["10.99.40.26"], "all": true, "name": "moi-log-proxy2"}, {"ips": ["10.21.58.8"], "all": true, "name": "esait-log-proxy2"}, {"ips": ["10.21.58.11"], "all": true, "name": "esait-log-proxy3"}]}, {"all": true, "name": "RSA", "devices": [{"ips": ["10.93.11.14"], "all": true, "name": "core-vs1-p001esarsam"}, {"ips": ["10.44.35.14"], "all": true, "name": "core-vs2-p001esarsam"}]}, {"all": true, "name": "Ungrouped", "devices": []}], "repos": [{"name": "default"}, {"name": "_logpoint"}, {"name": "_LogPointAlerts"}, {"name": "Repo-core-system"}, {"name": "Repo-core-system-verbose"}, {"name": "Repo-core-secu"}, {"name": "Repo-core-secu-verbose"}, {"name": "Repo-core-system-expert"}, {"name": "Repo-core-cloud"}, {"name": "Repo-moi-system"}, {"name": "Repo-moi-system-verbose"}, {"name": "Repo-moi-secu"}, {"name": "Repo-moi-secu-verbose"}, {"name": "Repo-moi-system-expert"}, {"name": "Repo-moi-cloud"}, {"name": "Repo-esait-system"}, {"name": "Repo-esait-secu"}, {"name": "Repo-esait-secu-verbose"}, {"name": "Repo-sccoe-cloud"}, {"name": "Repo-sccoe-secu"}, {"name": "Repo-sccoe-secu-verbose"}, {"name": "Repo-sccoe-system"}, {"name": "Repo-sccoe-system-expert"}, {"name": "Repo-sccoe-system-verbose"}, {"name": "Repo-esait-system-verbose"}, {"name": "Repo-tia-system"}, {"name": "Repo-tia-system-verbose"}, {"name": "Repo-tia-secu"}, {"name": "Repo-tia-secu-verbose"}], "allDeviceGroups": true, "allRepos": true}]}</t>
+  </si>
+  <si>
+    <t>settings.repos</t>
+  </si>
+  <si>
+    <t>settings.user</t>
+  </si>
+  <si>
+    <t>settings.assigned_to</t>
+  </si>
+  <si>
+    <t>settings.visible_to_users</t>
+  </si>
+  <si>
+    <t>settings.visible_to</t>
+  </si>
+  <si>
     <t>alert_index</t>
   </si>
   <si>
+    <t>settings.vid</t>
+  </si>
+  <si>
+    <t>settings.used_from</t>
+  </si>
+  <si>
     <t>settings.active</t>
   </si>
   <si>
+    <t>settings.flush_on_trigger</t>
+  </si>
+  <si>
     <t>settings.description</t>
   </si>
   <si>
+    <t>settings.data_privacy_request</t>
+  </si>
+  <si>
     <t>settings.time_range_seconds</t>
   </si>
   <si>
+    <t>settings.version</t>
+  </si>
+  <si>
+    <t>settings.tid</t>
+  </si>
+  <si>
     <t>settings.extra_config.query</t>
   </si>
   <si>
-    <t>settings.repos</t>
-  </si>
-  <si>
-    <t>settings.vid</t>
-  </si>
-  <si>
-    <t>settings.used_from</t>
-  </si>
-  <si>
-    <t>settings.visible_to</t>
-  </si>
-  <si>
-    <t>settings.flush_on_trigger</t>
-  </si>
-  <si>
-    <t>settings.data_privacy_request</t>
-  </si>
-  <si>
-    <t>settings.version</t>
-  </si>
-  <si>
-    <t>settings.tid</t>
-  </si>
-  <si>
     <t>settings.risk</t>
   </si>
   <si>
-    <t>settings.visible_to_users</t>
-  </si>
-  <si>
-    <t>settings.user</t>
-  </si>
-  <si>
     <t>settings.aggregate</t>
   </si>
   <si>
@@ -1889,9 +1933,6 @@
     <t>settings.name</t>
   </si>
   <si>
-    <t>settings.assigned_to</t>
-  </si>
-  <si>
     <t>settings.notifications</t>
   </si>
   <si>
@@ -2006,27 +2047,30 @@
     <t>LP_LogPoint License Expiry Status</t>
   </si>
   <si>
+    <t>["127.0.0.1:5504", "10.109.234.1:5504"]</t>
+  </si>
+  <si>
+    <t>ldap_CN=PFOH Stéphan,OU=Internes,OU=PRD,OU=Users,OU=T2,DC=matmut,DC=fr</t>
+  </si>
+  <si>
+    <t>5a61fb4103a0f34af015fad6</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>ALERT_735</t>
+  </si>
+  <si>
     <t>This alert is triggered whenever LogPoint license is about to expire.</t>
   </si>
   <si>
     <t>norm_id=LogPoint label=Audit object='License checker' days_remaining=*</t>
   </si>
   <si>
-    <t>["127.0.0.1:5504", "10.109.234.1:5504"]</t>
-  </si>
-  <si>
-    <t>ALERT_735</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>medium</t>
   </si>
   <si>
-    <t>ldap_CN=PFOH Stéphan,OU=Internes,OU=PRD,OU=Users,OU=T2,DC=matmut,DC=fr</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -2034,9 +2078,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>5a61fb4103a0f34af015fad6</t>
   </si>
   <si>
     <t>[{"template_file": "alert_5a61fb4103a0f34af015fad6_JRIF6TDPM5IG62LOOQQEY2LDMVXHGZJAIV4HA2LSPEQFG5DBOR2XG===.tmp", "notify_email": false, "email_template": "&lt;style type=\"text/css\"&gt;\n\t.alert-table{\n\t\tborder: 1px solid #eee;\n\t\tmargin: 0px;\n\t\tpadding: 0px;\t\t\n\t}\n\t.alert-table-th{\n\t\ttext-align: left;\n\t\tborder-bottom: 2px solid #eee;\n\t\tpadding: 5px;\n\t\tcolor: #ffffff;\n\t\tbackground-color: #646883;\n\t\tfont-family: helvetica;\n\t\tfont-size: 16px;\n\t}\n\t.alert-table-td{\n\t\tborder-left: 1px solid #eee;\n\t\ttext-align: left;\n\t\tborder-bottom: 1px solid #eee;\n\t\tpadding: 5px;\n\t\tfont-family: helvetica;\n\t\tfont-size: 15px;\n\t}\n\t.even{\n\t\tbackground:#f6f6f8;\n\t}\n\n\t.odd{\n\t\tbackground:#ffffff;\n\t}\n&lt;/style&gt;\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\n\t&lt;tbody&gt;&lt;tr&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;Event Time&lt;/th&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;Object&lt;/th&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;License Expires in&lt;/th&gt;\n\t&lt;/tr&gt;\n\n\t&lt;tr&gt;\n\t\t&lt;td colspan=\"4\"&gt;\n\t\t\t{% for row in rows %}\n\t\t\t&lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\n\t\t\t\t&lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.log_ts | datetime}}&lt;/td&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.object}}&lt;/td&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.days_remaining}}&lt;/td&gt;\n\t\t\t\t&lt;/tr&gt;\n\t\t\t&lt;/tbody&gt;&lt;/table&gt;\n\t\t\t{% endfor %}\n\t\t&lt;/td&gt;\n\t&lt;/tr&gt;\n&lt;/tbody&gt;&lt;/table&gt;\n", "email_emails": [], "threshold": {}, "type": "email", "subject": "LP_LogPoint License Expiry Status"}, {"threshold_value": null, "protocol": "UDP", "severity": 4, "facility": 14, "port": 514, "threshold_option": null, "notify_syslog": true, "split_rows": true, "server": "127.0.0.1", "type": "syslog", "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_object: {{row.object}}; incident_day: {{row.days_remaining}}; incident_criteria: {{description}}.\n{% endfor %}"}]</t>
@@ -2655,6 +2696,326 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:59">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59">
+      <c r="A2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F2" t="s">
+        <v>675</v>
+      </c>
+      <c r="G2">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>676</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>677</v>
+      </c>
+      <c r="N2">
+        <v>300</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>678</v>
+      </c>
+      <c r="R2" t="s">
+        <v>679</v>
+      </c>
+      <c r="S2" t="s">
+        <v>680</v>
+      </c>
+      <c r="T2" t="s">
+        <v>681</v>
+      </c>
+      <c r="U2" t="s">
+        <v>682</v>
+      </c>
+      <c r="V2" t="s">
+        <v>671</v>
+      </c>
+      <c r="W2" t="s">
+        <v>683</v>
+      </c>
+      <c r="X2" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>678</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>685</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>671</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>686</v>
+      </c>
+      <c r="AN2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>678</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>687</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>5</v>
+      </c>
+      <c r="AW2">
+        <v>25</v>
+      </c>
+      <c r="AX2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>688</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
@@ -4060,7 +4421,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4118,34 +4479,34 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="L2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="M2" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="N2" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="O2" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4153,34 +4514,34 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="L3" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M3" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="N3" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="O3" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4188,34 +4549,34 @@
         <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="L4" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M4" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="N4" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="O4" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4223,34 +4584,34 @@
         <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="L5" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M5" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="N5" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="O5" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4258,34 +4619,34 @@
         <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L6" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M6" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="N6" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="O6" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4293,34 +4654,34 @@
         <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="L7" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="M7" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="N7" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="O7" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4328,34 +4689,34 @@
         <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L8" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M8" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="N8" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="O8" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4363,34 +4724,34 @@
         <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L9" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M9" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="N9" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="O9" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -4398,34 +4759,34 @@
         <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L10" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M10" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="N10" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="O10" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -4433,34 +4794,34 @@
         <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L11" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M11" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="N11" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="O11" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4468,34 +4829,34 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F12" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L12" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M12" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="N12" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="O12" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -4503,34 +4864,34 @@
         <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L13" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M13" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="N13" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="O13" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -4538,34 +4899,34 @@
         <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F14" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="L14" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M14" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="N14" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="O14" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -4573,34 +4934,34 @@
         <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="L15" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M15" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="N15" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="O15" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -4608,34 +4969,34 @@
         <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="L16" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M16" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="N16" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="O16" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -4643,34 +5004,34 @@
         <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L17" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M17" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="N17" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="O17" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -4678,34 +5039,34 @@
         <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F18" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L18" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M18" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="N18" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="O18" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -4713,34 +5074,34 @@
         <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="L19" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M19" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N19" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O19" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -4748,34 +5109,34 @@
         <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="L20" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M20" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N20" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O20" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -4783,34 +5144,34 @@
         <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F21" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M21" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N21" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O21" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -4818,34 +5179,34 @@
         <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F22" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="L22" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M22" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N22" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O22" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -4853,34 +5214,34 @@
         <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F23" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L23" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M23" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N23" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O23" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -4888,34 +5249,34 @@
         <v>137</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F24" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L24" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M24" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N24" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O24" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -4923,34 +5284,34 @@
         <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L25" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M25" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N25" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O25" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -4958,34 +5319,34 @@
         <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L26" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M26" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N26" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O26" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -4993,34 +5354,34 @@
         <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L27" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M27" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N27" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O27" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -5028,34 +5389,34 @@
         <v>141</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F28" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L28" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M28" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N28" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O28" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -5063,34 +5424,34 @@
         <v>142</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M29" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N29" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O29" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -5098,34 +5459,34 @@
         <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="L30" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M30" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N30" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O30" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -5133,34 +5494,34 @@
         <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N31" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O31" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -5168,34 +5529,34 @@
         <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N32" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O32" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -5203,34 +5564,34 @@
         <v>146</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N33" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O33" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -5238,34 +5599,34 @@
         <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N34" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O34" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -5273,34 +5634,34 @@
         <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N35" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -5308,34 +5669,34 @@
         <v>149</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N36" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O36" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -5343,34 +5704,34 @@
         <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N37" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O37" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -5378,34 +5739,34 @@
         <v>151</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F38" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N38" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O38" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -5413,34 +5774,34 @@
         <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M39" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N39" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O39" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -5448,34 +5809,34 @@
         <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M40" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N40" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O40" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -5483,34 +5844,34 @@
         <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="L41" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M41" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N41" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O41" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -5518,34 +5879,34 @@
         <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M42" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N42" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O42" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -5553,34 +5914,34 @@
         <v>156</v>
       </c>
       <c r="B43" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="L43" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M43" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N43" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O43" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -5588,34 +5949,34 @@
         <v>157</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F44" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="H44" t="b">
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="L44" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M44" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N44" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O44" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -5623,34 +5984,34 @@
         <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F45" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="L45" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M45" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N45" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O45" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -5658,34 +6019,34 @@
         <v>159</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F46" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="L46" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M46" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N46" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O46" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -5693,34 +6054,34 @@
         <v>160</v>
       </c>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F47" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="L47" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M47" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N47" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O47" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -5728,34 +6089,34 @@
         <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F48" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="L48" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M48" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N48" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O48" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -5763,34 +6124,34 @@
         <v>162</v>
       </c>
       <c r="B49" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F49" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="L49" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M49" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N49" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O49" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -5798,34 +6159,34 @@
         <v>163</v>
       </c>
       <c r="B50" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F50" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="L50" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M50" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N50" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O50" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -5833,34 +6194,34 @@
         <v>164</v>
       </c>
       <c r="B51" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F51" t="s">
+        <v>280</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
         <v>290</v>
-      </c>
-      <c r="H51" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>305</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="L51" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M51" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N51" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O51" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -5868,34 +6229,34 @@
         <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F52" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="L52" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M52" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N52" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O52" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -5903,34 +6264,34 @@
         <v>166</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F53" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="L53" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M53" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N53" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O53" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -5938,34 +6299,34 @@
         <v>167</v>
       </c>
       <c r="B54" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="L54" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M54" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N54" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O54" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -5973,34 +6334,34 @@
         <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F55" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="L55" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M55" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N55" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O55" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -6008,34 +6369,34 @@
         <v>169</v>
       </c>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F56" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H56" t="b">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="L56" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M56" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N56" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O56" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -6043,34 +6404,34 @@
         <v>170</v>
       </c>
       <c r="B57" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F57" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="L57" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M57" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N57" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O57" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -6078,34 +6439,34 @@
         <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F58" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="L58" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M58" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N58" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O58" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -6113,209 +6474,34 @@
         <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F59" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="L59" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M59" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="N59" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O59" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" t="s">
-        <v>173</v>
-      </c>
-      <c r="B60" t="s">
-        <v>236</v>
-      </c>
-      <c r="F60" t="s">
-        <v>299</v>
-      </c>
-      <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>305</v>
-      </c>
-      <c r="J60" t="b">
-        <v>0</v>
-      </c>
-      <c r="K60" t="s">
-        <v>307</v>
-      </c>
-      <c r="L60" t="s">
-        <v>316</v>
-      </c>
-      <c r="M60" t="s">
-        <v>318</v>
-      </c>
-      <c r="N60" t="s">
-        <v>318</v>
-      </c>
-      <c r="O60" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" t="s">
-        <v>237</v>
-      </c>
-      <c r="F61" t="s">
-        <v>300</v>
-      </c>
-      <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>305</v>
-      </c>
-      <c r="J61" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
-        <v>307</v>
-      </c>
-      <c r="L61" t="s">
-        <v>316</v>
-      </c>
-      <c r="M61" t="s">
-        <v>318</v>
-      </c>
-      <c r="N61" t="s">
-        <v>318</v>
-      </c>
-      <c r="O61" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" t="s">
-        <v>238</v>
-      </c>
-      <c r="F62" t="s">
-        <v>301</v>
-      </c>
-      <c r="H62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
-        <v>305</v>
-      </c>
-      <c r="J62" t="b">
-        <v>0</v>
-      </c>
-      <c r="K62" t="s">
-        <v>308</v>
-      </c>
-      <c r="L62" t="s">
-        <v>315</v>
-      </c>
-      <c r="M62" t="s">
-        <v>318</v>
-      </c>
-      <c r="N62" t="s">
-        <v>318</v>
-      </c>
-      <c r="O62" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" t="s">
-        <v>239</v>
-      </c>
-      <c r="F63" t="s">
-        <v>302</v>
-      </c>
-      <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>304</v>
-      </c>
-      <c r="J63" t="b">
-        <v>0</v>
-      </c>
-      <c r="K63" t="s">
-        <v>306</v>
-      </c>
-      <c r="L63" t="s">
-        <v>315</v>
-      </c>
-      <c r="M63" t="s">
-        <v>317</v>
-      </c>
-      <c r="N63" t="s">
-        <v>317</v>
-      </c>
-      <c r="O63" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" t="s">
-        <v>240</v>
-      </c>
-      <c r="F64" t="s">
-        <v>303</v>
-      </c>
-      <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>304</v>
-      </c>
-      <c r="J64" t="b">
-        <v>0</v>
-      </c>
-      <c r="K64" t="s">
-        <v>306</v>
-      </c>
-      <c r="L64" t="s">
-        <v>315</v>
-      </c>
-      <c r="M64" t="s">
-        <v>317</v>
-      </c>
-      <c r="N64" t="s">
-        <v>317</v>
-      </c>
-      <c r="O64" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6325,7 +6511,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG64"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6336,100 +6522,100 @@
         <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>111</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -6437,37 +6623,46 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D2" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="E2" t="s">
-        <v>414</v>
+        <v>392</v>
+      </c>
+      <c r="F2" t="s">
+        <v>393</v>
       </c>
       <c r="G2" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H2" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="P2" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB2" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AD2" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="AE2" t="s">
-        <v>493</v>
+        <v>464</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -6475,46 +6670,49 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F3" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="G3" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H3" t="s">
-        <v>424</v>
+        <v>402</v>
+      </c>
+      <c r="K3" t="s">
+        <v>459</v>
       </c>
       <c r="P3" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB3" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AD3" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE3" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="AF3" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="AG3" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -6522,49 +6720,49 @@
         <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F4" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="G4" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H4" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="K4" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="P4" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB4" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="AD4" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE4" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="AF4" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="AG4" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -6572,49 +6770,46 @@
         <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D5" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E5" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F5" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="G5" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H5" t="s">
-        <v>426</v>
-      </c>
-      <c r="K5" t="s">
-        <v>486</v>
+        <v>404</v>
       </c>
       <c r="P5" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB5" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AD5" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE5" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="AF5" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="AG5" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -6622,46 +6817,40 @@
         <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D6" t="s">
-        <v>355</v>
-      </c>
-      <c r="E6" t="s">
-        <v>414</v>
+        <v>338</v>
       </c>
       <c r="F6" t="s">
-        <v>417</v>
-      </c>
-      <c r="G6" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="H6" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="P6" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB6" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC6" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="AD6" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE6" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="AF6" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG6" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -6669,40 +6858,40 @@
         <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D7" t="s">
-        <v>356</v>
-      </c>
-      <c r="E7" t="s">
-        <v>414</v>
+        <v>339</v>
       </c>
       <c r="F7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G7" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="H7" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="P7" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB7" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="AD7" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="AE7" t="s">
-        <v>497</v>
+        <v>467</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>471</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -6710,40 +6899,40 @@
         <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D8" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="F8" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="H8" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="P8" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB8" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC8" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="AD8" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE8" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="AF8" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG8" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -6751,40 +6940,40 @@
         <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D9" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="F9" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="H9" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="P9" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB9" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC9" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AD9" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE9" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="AF9" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG9" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -6792,40 +6981,40 @@
         <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D10" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="F10" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="H10" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="P10" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB10" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC10" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AD10" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE10" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="AF10" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG10" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -6833,40 +7022,40 @@
         <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D11" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="F11" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="H11" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="P11" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB11" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AD11" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE11" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="AF11" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG11" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -6874,40 +7063,40 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D12" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="F12" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="H12" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="P12" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB12" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC12" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AD12" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE12" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="AF12" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG12" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -6915,40 +7104,40 @@
         <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D13" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="F13" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="H13" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="P13" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB13" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC13" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AD13" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE13" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="AF13" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG13" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -6956,40 +7145,43 @@
         <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D14" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="F14" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="H14" t="s">
-        <v>435</v>
+        <v>413</v>
+      </c>
+      <c r="K14" t="s">
+        <v>459</v>
       </c>
       <c r="P14" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB14" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC14" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AD14" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE14" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="AF14" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG14" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -6997,40 +7189,40 @@
         <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D15" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="F15" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="H15" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="P15" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB15" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="AD15" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE15" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="AF15" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG15" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -7038,43 +7230,40 @@
         <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D16" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="H16" t="s">
-        <v>437</v>
-      </c>
-      <c r="K16" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="P16" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>467</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>472</v>
+      </c>
+      <c r="AG16" t="s">
         <v>487</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>498</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>504</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -7082,40 +7271,46 @@
         <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D17" t="s">
-        <v>366</v>
+        <v>349</v>
+      </c>
+      <c r="E17" t="s">
+        <v>392</v>
       </c>
       <c r="F17" t="s">
-        <v>419</v>
+        <v>394</v>
+      </c>
+      <c r="G17" t="s">
+        <v>400</v>
       </c>
       <c r="H17" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="P17" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB17" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>467</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>471</v>
+      </c>
+      <c r="AG17" t="s">
         <v>488</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>498</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>504</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -7123,40 +7318,46 @@
         <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
+        <v>333</v>
+      </c>
+      <c r="D18" t="s">
         <v>350</v>
       </c>
-      <c r="D18" t="s">
-        <v>367</v>
+      <c r="E18" t="s">
+        <v>392</v>
       </c>
       <c r="F18" t="s">
-        <v>419</v>
+        <v>394</v>
+      </c>
+      <c r="G18" t="s">
+        <v>400</v>
       </c>
       <c r="H18" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="P18" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB18" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC18" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="AD18" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE18" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="AF18" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="AG18" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -7164,46 +7365,46 @@
         <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D19" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E19" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F19" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G19" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H19" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="P19" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB19" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC19" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD19" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE19" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="AF19" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG19" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -7211,46 +7412,46 @@
         <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D20" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="E20" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F20" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G20" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="P20" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB20" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC20" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="AD20" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>467</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>471</v>
+      </c>
+      <c r="AG20" t="s">
         <v>491</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>498</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>504</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -7258,46 +7459,40 @@
         <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D21" t="s">
-        <v>370</v>
-      </c>
-      <c r="E21" t="s">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="F21" t="s">
-        <v>416</v>
-      </c>
-      <c r="G21" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="H21" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="P21" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB21" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC21" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AD21" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE21" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="AF21" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="AG21" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -7305,46 +7500,40 @@
         <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D22" t="s">
-        <v>371</v>
-      </c>
-      <c r="E22" t="s">
-        <v>414</v>
+        <v>354</v>
       </c>
       <c r="F22" t="s">
-        <v>416</v>
-      </c>
-      <c r="G22" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="H22" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="P22" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB22" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC22" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AD22" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE22" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="AF22" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="AG22" t="s">
-        <v>524</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -7352,40 +7541,46 @@
         <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C23" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D23" t="s">
-        <v>372</v>
+        <v>355</v>
+      </c>
+      <c r="E23" t="s">
+        <v>392</v>
       </c>
       <c r="F23" t="s">
-        <v>417</v>
+        <v>394</v>
+      </c>
+      <c r="G23" t="s">
+        <v>400</v>
       </c>
       <c r="H23" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="P23" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB23" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC23" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AD23" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE23" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="AF23" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="AG23" t="s">
-        <v>525</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -7393,40 +7588,46 @@
         <v>137</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D24" t="s">
-        <v>373</v>
+        <v>356</v>
+      </c>
+      <c r="E24" t="s">
+        <v>392</v>
       </c>
       <c r="F24" t="s">
-        <v>417</v>
+        <v>395</v>
+      </c>
+      <c r="G24" t="s">
+        <v>400</v>
       </c>
       <c r="H24" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="P24" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB24" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC24" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AD24" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE24" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="AF24" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="AG24" t="s">
-        <v>526</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -7434,46 +7635,46 @@
         <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D25" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E25" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="G25" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H25" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="P25" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB25" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC25" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AD25" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE25" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="AF25" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG25" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -7481,46 +7682,46 @@
         <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C26" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D26" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="E26" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F26" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="G26" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="P26" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB26" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC26" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="AD26" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE26" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF26" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG26" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -7528,46 +7729,46 @@
         <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D27" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="E27" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F27" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="G27" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H27" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="P27" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB27" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC27" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AD27" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE27" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF27" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG27" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -7575,46 +7776,46 @@
         <v>141</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C28" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D28" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="E28" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F28" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="G28" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H28" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="P28" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB28" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC28" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="AD28" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE28" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>471</v>
+      </c>
+      <c r="AG28" t="s">
         <v>499</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>504</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -7622,46 +7823,46 @@
         <v>142</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D29" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E29" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F29" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="G29" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H29" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="P29" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB29" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC29" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="AD29" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE29" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF29" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG29" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -7669,46 +7870,46 @@
         <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D30" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="E30" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F30" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="G30" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H30" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="P30" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB30" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC30" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="AD30" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE30" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF30" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG30" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -7716,46 +7917,46 @@
         <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D31" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="E31" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F31" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="G31" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H31" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="P31" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB31" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC31" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AD31" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE31" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF31" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG31" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -7763,46 +7964,46 @@
         <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D32" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="E32" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F32" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="G32" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H32" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="P32" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB32" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC32" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AD32" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE32" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF32" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG32" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -7810,46 +8011,46 @@
         <v>146</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C33" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D33" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E33" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F33" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G33" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H33" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="P33" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB33" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC33" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AD33" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE33" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF33" t="s">
+        <v>471</v>
+      </c>
+      <c r="AG33" t="s">
         <v>504</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -7857,46 +8058,46 @@
         <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C34" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D34" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="E34" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F34" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G34" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H34" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="P34" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB34" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC34" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="AD34" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE34" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF34" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG34" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -7904,46 +8105,46 @@
         <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D35" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E35" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F35" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="G35" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H35" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="P35" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB35" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC35" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AD35" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE35" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF35" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG35" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -7951,46 +8152,46 @@
         <v>149</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D36" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="E36" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F36" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="G36" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H36" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="P36" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB36" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC36" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AD36" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE36" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF36" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG36" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -7998,46 +8199,46 @@
         <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D37" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E37" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F37" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="G37" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H37" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="P37" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB37" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC37" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AD37" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE37" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF37" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG37" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -8045,46 +8246,46 @@
         <v>151</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D38" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="E38" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F38" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="G38" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H38" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="P38" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB38" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC38" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AD38" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE38" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF38" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG38" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -8092,46 +8293,40 @@
         <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D39" t="s">
-        <v>388</v>
-      </c>
-      <c r="E39" t="s">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="F39" t="s">
-        <v>420</v>
-      </c>
-      <c r="G39" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="H39" t="s">
+        <v>438</v>
+      </c>
+      <c r="P39" t="s">
         <v>460</v>
       </c>
-      <c r="P39" t="s">
-        <v>487</v>
-      </c>
       <c r="AB39" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC39" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AD39" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE39" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF39" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="AG39" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -8139,46 +8334,46 @@
         <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D40" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="E40" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F40" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="G40" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H40" t="s">
+        <v>439</v>
+      </c>
+      <c r="P40" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB40" t="s">
         <v>461</v>
       </c>
-      <c r="P40" t="s">
-        <v>487</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>488</v>
-      </c>
       <c r="AC40" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AD40" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE40" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF40" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG40" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -8186,40 +8381,46 @@
         <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D41" t="s">
-        <v>390</v>
+        <v>373</v>
+      </c>
+      <c r="E41" t="s">
+        <v>392</v>
       </c>
       <c r="F41" t="s">
-        <v>416</v>
+        <v>394</v>
+      </c>
+      <c r="G41" t="s">
+        <v>400</v>
       </c>
       <c r="H41" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="P41" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB41" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC41" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AD41" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE41" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF41" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="AG41" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -8227,46 +8428,46 @@
         <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C42" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D42" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="E42" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F42" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G42" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H42" t="s">
+        <v>441</v>
+      </c>
+      <c r="P42" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD42" t="s">
         <v>463</v>
       </c>
-      <c r="P42" t="s">
-        <v>487</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>491</v>
-      </c>
       <c r="AE42" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF42" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG42" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -8274,46 +8475,46 @@
         <v>156</v>
       </c>
       <c r="B43" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C43" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D43" t="s">
+        <v>375</v>
+      </c>
+      <c r="E43" t="s">
         <v>392</v>
       </c>
-      <c r="E43" t="s">
-        <v>414</v>
-      </c>
       <c r="F43" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G43" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H43" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="P43" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB43" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC43" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AD43" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE43" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF43" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG43" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -8321,46 +8522,46 @@
         <v>157</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D44" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E44" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F44" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G44" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H44" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P44" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB44" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC44" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="AD44" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE44" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF44" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG44" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -8368,46 +8569,46 @@
         <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C45" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D45" t="s">
+        <v>377</v>
+      </c>
+      <c r="E45" t="s">
+        <v>392</v>
+      </c>
+      <c r="F45" t="s">
         <v>394</v>
       </c>
-      <c r="E45" t="s">
-        <v>414</v>
-      </c>
-      <c r="F45" t="s">
-        <v>416</v>
-      </c>
       <c r="G45" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H45" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="P45" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB45" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC45" t="s">
-        <v>284</v>
+        <v>462</v>
       </c>
       <c r="AD45" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE45" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF45" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG45" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -8415,46 +8616,46 @@
         <v>159</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C46" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D46" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E46" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F46" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G46" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H46" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="P46" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB46" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC46" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AD46" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE46" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF46" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG46" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -8462,46 +8663,46 @@
         <v>160</v>
       </c>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C47" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D47" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="E47" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F47" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G47" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H47" t="s">
+        <v>446</v>
+      </c>
+      <c r="P47" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE47" t="s">
         <v>468</v>
       </c>
-      <c r="P47" t="s">
-        <v>487</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>489</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>499</v>
-      </c>
       <c r="AF47" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG47" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -8509,46 +8710,46 @@
         <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C48" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D48" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="E48" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F48" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G48" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H48" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="P48" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB48" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC48" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="AD48" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE48" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF48" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG48" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -8556,46 +8757,46 @@
         <v>162</v>
       </c>
       <c r="B49" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C49" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D49" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="E49" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F49" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G49" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H49" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P49" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB49" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC49" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="AD49" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE49" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF49" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG49" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -8603,46 +8804,46 @@
         <v>163</v>
       </c>
       <c r="B50" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C50" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D50" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="E50" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F50" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G50" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H50" t="s">
+        <v>449</v>
+      </c>
+      <c r="P50" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF50" t="s">
         <v>471</v>
       </c>
-      <c r="P50" t="s">
-        <v>487</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>499</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>504</v>
-      </c>
       <c r="AG50" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -8650,46 +8851,46 @@
         <v>164</v>
       </c>
       <c r="B51" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C51" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D51" t="s">
+        <v>383</v>
+      </c>
+      <c r="E51" t="s">
+        <v>392</v>
+      </c>
+      <c r="F51" t="s">
+        <v>394</v>
+      </c>
+      <c r="G51" t="s">
         <v>400</v>
       </c>
-      <c r="E51" t="s">
-        <v>414</v>
-      </c>
-      <c r="F51" t="s">
-        <v>416</v>
-      </c>
-      <c r="G51" t="s">
-        <v>422</v>
-      </c>
       <c r="H51" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="P51" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB51" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC51" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AD51" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE51" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF51" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG51" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -8697,46 +8898,46 @@
         <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C52" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D52" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="E52" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F52" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G52" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H52" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="P52" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB52" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC52" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AD52" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE52" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF52" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG52" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -8744,46 +8945,46 @@
         <v>166</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D53" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="E53" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F53" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G53" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H53" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="P53" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB53" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC53" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AD53" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE53" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF53" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG53" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -8791,46 +8992,46 @@
         <v>167</v>
       </c>
       <c r="B54" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C54" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D54" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="E54" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F54" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G54" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H54" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="P54" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB54" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC54" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AD54" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE54" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF54" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG54" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -8838,46 +9039,46 @@
         <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C55" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D55" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="E55" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F55" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G55" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H55" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="P55" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB55" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC55" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="AD55" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE55" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF55" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG55" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
     </row>
     <row r="56" spans="1:33">
@@ -8885,46 +9086,46 @@
         <v>169</v>
       </c>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D56" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="E56" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F56" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G56" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H56" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="P56" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB56" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC56" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AD56" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE56" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF56" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG56" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -8932,46 +9133,46 @@
         <v>170</v>
       </c>
       <c r="B57" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C57" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D57" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="E57" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F57" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G57" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H57" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="P57" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB57" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC57" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AD57" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE57" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF57" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG57" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -8979,46 +9180,46 @@
         <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D58" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="E58" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F58" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="G58" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H58" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="P58" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB58" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC58" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="AD58" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE58" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF58" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG58" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -9026,257 +9227,46 @@
         <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C59" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D59" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="E59" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F59" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="G59" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="H59" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="P59" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AB59" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="AC59" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AD59" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="AE59" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="AF59" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AG59" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33">
-      <c r="A60" t="s">
-        <v>173</v>
-      </c>
-      <c r="B60" t="s">
-        <v>236</v>
-      </c>
-      <c r="C60" t="s">
-        <v>350</v>
-      </c>
-      <c r="D60" t="s">
-        <v>409</v>
-      </c>
-      <c r="E60" t="s">
-        <v>414</v>
-      </c>
-      <c r="F60" t="s">
-        <v>421</v>
-      </c>
-      <c r="G60" t="s">
-        <v>422</v>
-      </c>
-      <c r="H60" t="s">
-        <v>481</v>
-      </c>
-      <c r="P60" t="s">
-        <v>487</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>299</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>499</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>504</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33">
-      <c r="A61" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" t="s">
-        <v>237</v>
-      </c>
-      <c r="C61" t="s">
-        <v>350</v>
-      </c>
-      <c r="D61" t="s">
-        <v>410</v>
-      </c>
-      <c r="E61" t="s">
-        <v>414</v>
-      </c>
-      <c r="F61" t="s">
-        <v>421</v>
-      </c>
-      <c r="G61" t="s">
-        <v>422</v>
-      </c>
-      <c r="H61" t="s">
-        <v>482</v>
-      </c>
-      <c r="P61" t="s">
-        <v>487</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>499</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>504</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33">
-      <c r="A62" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" t="s">
-        <v>238</v>
-      </c>
-      <c r="C62" t="s">
-        <v>350</v>
-      </c>
-      <c r="D62" t="s">
-        <v>411</v>
-      </c>
-      <c r="E62" t="s">
-        <v>414</v>
-      </c>
-      <c r="F62" t="s">
-        <v>416</v>
-      </c>
-      <c r="G62" t="s">
-        <v>422</v>
-      </c>
-      <c r="H62" t="s">
-        <v>483</v>
-      </c>
-      <c r="P62" t="s">
-        <v>487</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>492</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33">
-      <c r="A63" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" t="s">
-        <v>239</v>
-      </c>
-      <c r="C63" t="s">
-        <v>350</v>
-      </c>
-      <c r="D63" t="s">
-        <v>412</v>
-      </c>
-      <c r="E63" t="s">
-        <v>414</v>
-      </c>
-      <c r="G63" t="s">
-        <v>422</v>
-      </c>
-      <c r="H63" t="s">
-        <v>484</v>
-      </c>
-      <c r="P63" t="s">
-        <v>487</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>490</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33">
-      <c r="A64" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" t="s">
-        <v>240</v>
-      </c>
-      <c r="C64" t="s">
-        <v>350</v>
-      </c>
-      <c r="D64" t="s">
-        <v>413</v>
-      </c>
-      <c r="E64" t="s">
-        <v>414</v>
-      </c>
-      <c r="G64" t="s">
-        <v>422</v>
-      </c>
-      <c r="H64" t="s">
-        <v>485</v>
-      </c>
-      <c r="P64" t="s">
-        <v>487</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>490</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -9294,7 +9284,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>106</v>
@@ -9306,7 +9296,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>47</v>
@@ -9314,132 +9304,132 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C5" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>571</v>
+        <v>538</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C8" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
       <c r="B9" t="s">
-        <v>579</v>
+        <v>546</v>
       </c>
       <c r="C9" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -9447,70 +9437,70 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="B11" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C11" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>547</v>
       </c>
       <c r="C12" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>600</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="B13" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="C13" t="s">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -9520,317 +9510,243 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>602</v>
+        <v>570</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D4" t="s">
+        <v>594</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D5" t="s">
+        <v>595</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C7" t="s">
+        <v>592</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>603</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" t="s">
         <v>606</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>610</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="F4" t="s">
         <v>612</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59">
-      <c r="A2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>661</v>
-      </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2" t="s">
-        <v>662</v>
-      </c>
-      <c r="G2" t="s">
-        <v>663</v>
-      </c>
-      <c r="I2" t="s">
-        <v>664</v>
-      </c>
-      <c r="J2" t="s">
-        <v>665</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>666</v>
-      </c>
-      <c r="P2" t="s">
-        <v>665</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>667</v>
-      </c>
-      <c r="R2" t="s">
-        <v>668</v>
-      </c>
-      <c r="S2" t="s">
-        <v>669</v>
-      </c>
-      <c r="T2" t="s">
-        <v>670</v>
-      </c>
-      <c r="U2" t="s">
-        <v>660</v>
-      </c>
-      <c r="V2" t="s">
-        <v>671</v>
-      </c>
-      <c r="W2" t="s">
-        <v>672</v>
-      </c>
-      <c r="X2" t="s">
-        <v>673</v>
-      </c>
-      <c r="AB2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>662</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>674</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>661</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>660</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>675</v>
-      </c>
-      <c r="AN2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>662</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>676</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>665</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>665</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>665</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>5</v>
-      </c>
-      <c r="AW2">
-        <v>25</v>
-      </c>
-      <c r="AX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>677</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>678</v>
       </c>
     </row>
   </sheetData>
